--- a/TestBits Assessment-open/data tambahan/employee.xlsx
+++ b/TestBits Assessment-open/data tambahan/employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syazw\Documents\GitHub\Syazwan_Testbits_KatalonWeb_Assessment\TestBits Assessment-open\data tambahan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syazw\Documents\GitHub\NewSyazwan_KatalonWebTesting_AssessmentProject\TestBits Assessment-open\data tambahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2650F-6C02-4649-B1FA-980A58533712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB6B2F-2B5B-4304-B973-F3A7AFA27C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>First name</t>
   </si>
@@ -55,24 +55,6 @@
   </si>
   <si>
     <t>ahmadkhan</t>
-  </si>
-  <si>
-    <t>Inori</t>
-  </si>
-  <si>
-    <t>Minase</t>
-  </si>
-  <si>
-    <t>minaseino</t>
-  </si>
-  <si>
-    <t>Sayuri</t>
-  </si>
-  <si>
-    <t>Tanaka</t>
-  </si>
-  <si>
-    <t>tanakasayu</t>
   </si>
 </sst>
 </file>
@@ -390,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A4" activeCellId="1" sqref="A5:XFD5 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,28 +426,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
